--- a/app/storage/uploads/Active  DID list_UPDATED.xlsx
+++ b/app/storage/uploads/Active  DID list_UPDATED.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="39">
   <si>
     <t>International DID</t>
   </si>
@@ -123,12 +123,6 @@
     <t xml:space="preserve">IGS_CARE </t>
   </si>
   <si>
-    <t>primary</t>
-  </si>
-  <si>
-    <t>backup</t>
-  </si>
-  <si>
     <t>Brand</t>
   </si>
   <si>
@@ -139,6 +133,9 @@
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>NSI Tag</t>
   </si>
 </sst>
 </file>
@@ -206,12 +203,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -547,550 +543,647 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" style="4" customWidth="1"/>
     <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="B1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>442030025941</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>611800603774</v>
       </c>
       <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>12137694522</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>12152496056</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>13109430018</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>13124651630</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>13124651689</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G8" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>13233326179</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G9" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>13476253715</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>13476253719</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G11" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>13476253727</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G12" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>13476253801</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G13" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>13476253807</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G14" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>14122001042</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G15" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>15202658039</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G16" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>16143494807</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G17" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>16144073627</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G18" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>16304073796</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G19" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>16304073797</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G20" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>16304461003</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G21" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>16307013961</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F22" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G22" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>16307013962</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F23" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G23" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>16307013963</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F24" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G24" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>16307013964</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F25" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G25" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>16307013965</v>
       </c>
       <c r="D26" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F26" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G26" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>16312671126</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G27" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>16312671130</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G28" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>16315328394</v>
       </c>
       <c r="D29" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F29" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G29" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <v>16465788582</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F30" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G30" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="5">
         <v>16465788590</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F31" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G31" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="5">
         <v>16465788596</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1100,17 +1193,20 @@
       <c r="B33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="5">
         <v>16465788598</v>
       </c>
       <c r="D33" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F33" t="s">
         <v>26</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1120,17 +1216,20 @@
       <c r="B34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="5">
         <v>16465788602</v>
       </c>
       <c r="D34" t="s">
         <v>17</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F34" t="s">
         <v>26</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1140,8 +1239,11 @@
       <c r="B35" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="5">
         <v>16465788608</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1151,54 +1253,57 @@
       <c r="B36" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="5">
         <v>16465788622</v>
       </c>
+      <c r="G36" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" s="12">
+      <c r="A37" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="11">
         <v>16465788624</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E37" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F37" s="10" t="s">
+      <c r="E37" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G37" t="s">
-        <v>35</v>
+      <c r="G37" s="10" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" s="12">
+      <c r="A38" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="11">
         <v>16465788640</v>
       </c>
-      <c r="D38" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F38" s="10" t="s">
+      <c r="D38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G38" t="s">
-        <v>35</v>
+      <c r="G38" s="10" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1208,17 +1313,20 @@
       <c r="B39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="5">
         <v>16465788668</v>
       </c>
       <c r="D39" t="s">
         <v>17</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F39" t="s">
         <v>26</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1228,17 +1336,20 @@
       <c r="B40" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="5">
         <v>16465788674</v>
       </c>
       <c r="D40" t="s">
         <v>17</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F40" t="s">
         <v>26</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1248,8 +1359,11 @@
       <c r="B41" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="5">
         <v>17542636771</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1259,18 +1373,21 @@
       <c r="B42" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="5">
         <v>17704050304</v>
       </c>
       <c r="D42" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F42" t="s">
         <v>27</v>
       </c>
+      <c r="G42" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -1279,18 +1396,21 @@
       <c r="B43" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="5">
         <v>19792464111</v>
       </c>
       <c r="D43" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F43" t="s">
         <v>27</v>
       </c>
+      <c r="G43" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -1299,8 +1419,11 @@
       <c r="B44" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="5">
         <v>19892441696</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1310,8 +1433,11 @@
       <c r="B45" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="5">
         <v>18005146697</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1321,40 +1447,43 @@
       <c r="B46" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="5">
         <v>18009101617</v>
       </c>
       <c r="D46" t="s">
         <v>15</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F46" t="s">
         <v>26</v>
       </c>
+      <c r="G46" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" s="11" t="s">
+      <c r="A47" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="12">
+      <c r="C47" s="11">
         <v>18884113613</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E47" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F47" s="10" t="s">
+      <c r="E47" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G47" t="s">
-        <v>35</v>
+      <c r="G47" s="10" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1364,627 +1493,624 @@
       <c r="B48" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="5">
         <v>18885695714</v>
       </c>
       <c r="D48" t="s">
         <v>16</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E48" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F48" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G48" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>4</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="5">
         <v>18885846406</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G49" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>4</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="5">
         <v>18888865471</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>5</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="3">
         <v>2127965012</v>
       </c>
       <c r="D51" t="s">
         <v>17</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="E51" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F51" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>5</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="6">
         <v>2127965013</v>
       </c>
       <c r="D52" t="s">
         <v>17</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="E52" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F52" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="6">
         <v>2022042043</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>5</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="6">
         <v>2062011907</v>
       </c>
       <c r="D54" t="s">
         <v>17</v>
       </c>
-      <c r="E54" s="9" t="s">
+      <c r="E54" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F54" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>5</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="6">
         <v>2062011908</v>
       </c>
       <c r="D55" t="s">
         <v>17</v>
       </c>
-      <c r="E55" s="9" t="s">
+      <c r="E55" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F55" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>5</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="6">
         <v>2062011909</v>
       </c>
       <c r="D56" t="s">
         <v>17</v>
       </c>
-      <c r="E56" s="9" t="s">
+      <c r="E56" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F56" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>5</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57" s="6">
         <v>2127965012</v>
       </c>
       <c r="D57" t="s">
         <v>17</v>
       </c>
-      <c r="E57" s="9" t="s">
+      <c r="E57" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F57" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>5</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58" s="6">
         <v>2127965013</v>
       </c>
       <c r="D58" t="s">
         <v>17</v>
       </c>
-      <c r="E58" s="9" t="s">
+      <c r="E58" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F58" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>5</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="6">
         <v>2127965013</v>
       </c>
       <c r="D59" t="s">
         <v>17</v>
       </c>
-      <c r="E59" s="9" t="s">
+      <c r="E59" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F59" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>5</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C60" s="6">
         <v>2127965013</v>
       </c>
       <c r="D60" t="s">
         <v>17</v>
       </c>
-      <c r="E60" s="9" t="s">
+      <c r="E60" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F60" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>5</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61" s="6">
         <v>2127965014</v>
       </c>
       <c r="D61" t="s">
         <v>17</v>
       </c>
-      <c r="E61" s="9" t="s">
+      <c r="E61" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F61" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>5</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="6">
         <v>2814767866</v>
       </c>
       <c r="D62" t="s">
         <v>17</v>
       </c>
-      <c r="E62" s="9" t="s">
+      <c r="E62" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F62" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>5</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C63" s="6">
         <v>2816174352</v>
       </c>
       <c r="D63" t="s">
         <v>17</v>
       </c>
-      <c r="E63" s="9" t="s">
+      <c r="E63" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F63" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>5</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C64" s="6">
         <v>3104250906</v>
       </c>
       <c r="D64" t="s">
         <v>17</v>
       </c>
-      <c r="E64" s="9" t="s">
+      <c r="E64" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F64" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>5</v>
       </c>
-      <c r="C65" s="7">
+      <c r="C65" s="6">
         <v>3104250907</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>5</v>
       </c>
-      <c r="C66" s="8">
+      <c r="C66" s="7">
         <v>442033180468</v>
       </c>
       <c r="D66" t="s">
         <v>21</v>
       </c>
-      <c r="E66" s="9" t="s">
+      <c r="E66" s="8" t="s">
         <v>31</v>
       </c>
       <c r="F66" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67" s="6">
         <v>5169536005</v>
       </c>
       <c r="D67" t="s">
         <v>12</v>
       </c>
-      <c r="E67" s="9" t="s">
+      <c r="E67" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F67" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>5</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C68" s="6">
         <v>5169536009</v>
       </c>
       <c r="D68" t="s">
         <v>20</v>
       </c>
-      <c r="E68" s="9" t="s">
+      <c r="E68" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F68" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>5</v>
       </c>
-      <c r="C69" s="7">
+      <c r="C69" s="6">
         <v>6144015280</v>
       </c>
       <c r="D69" t="s">
         <v>29</v>
       </c>
-      <c r="E69" s="9" t="s">
+      <c r="E69" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F69" t="s">
         <v>26</v>
       </c>
-      <c r="G69" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>5</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C70" s="6">
         <v>6144015281</v>
       </c>
       <c r="D70" t="s">
         <v>30</v>
       </c>
-      <c r="E70" s="9" t="s">
+      <c r="E70" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F70" t="s">
         <v>26</v>
       </c>
-      <c r="G70" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>5</v>
       </c>
-      <c r="C71" s="7">
+      <c r="C71" s="6">
         <v>6305090161</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>5</v>
       </c>
-      <c r="C72" s="7">
+      <c r="C72" s="6">
         <v>6464050233</v>
       </c>
       <c r="D72" t="s">
         <v>17</v>
       </c>
-      <c r="E72" s="9" t="s">
+      <c r="E72" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F72" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>5</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C73" s="6">
         <v>6464050238</v>
       </c>
       <c r="D73" t="s">
         <v>17</v>
       </c>
-      <c r="E73" s="9" t="s">
+      <c r="E73" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F73" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="7">
+      <c r="C74" s="6">
         <v>6788469582</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>5</v>
       </c>
-      <c r="C75" s="7">
+      <c r="C75" s="6">
         <v>7752414638</v>
       </c>
       <c r="D75" t="s">
         <v>19</v>
       </c>
-      <c r="E75" s="9" t="s">
+      <c r="E75" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F75" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>5</v>
       </c>
-      <c r="C76" s="7">
+      <c r="C76" s="6">
         <v>7783832340</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>5</v>
       </c>
-      <c r="C77" s="7">
+      <c r="C77" s="6">
         <v>8005071250</v>
       </c>
       <c r="D77" t="s">
         <v>17</v>
       </c>
-      <c r="E77" s="9" t="s">
+      <c r="E77" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F77" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>5</v>
       </c>
-      <c r="C78" s="7">
+      <c r="C78" s="6">
         <v>8005071850</v>
       </c>
       <c r="D78" t="s">
         <v>17</v>
       </c>
-      <c r="E78" s="9" t="s">
+      <c r="E78" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F78" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>5</v>
       </c>
-      <c r="C79" s="7">
+      <c r="C79" s="6">
         <v>8005078150</v>
       </c>
       <c r="D79" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="9" t="s">
+      <c r="E79" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F79" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>5</v>
       </c>
-      <c r="C80" s="7">
+      <c r="C80" s="6">
         <v>8005174150</v>
       </c>
       <c r="D80" t="s">
         <v>17</v>
       </c>
-      <c r="E80" s="9" t="s">
+      <c r="E80" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F80" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>5</v>
       </c>
-      <c r="C81" s="7">
+      <c r="C81" s="6">
         <v>8006562193</v>
       </c>
       <c r="D81" t="s">
         <v>18</v>
       </c>
-      <c r="E81" s="9" t="s">
+      <c r="E81" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F81" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>5</v>
       </c>
-      <c r="C82" s="7">
+      <c r="C82" s="6">
         <v>8663670661</v>
       </c>
       <c r="D82" t="s">
         <v>22</v>
       </c>
-      <c r="E82" s="9" t="s">
+      <c r="E82" s="8" t="s">
         <v>31</v>
       </c>
       <c r="F82" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>5</v>
       </c>
-      <c r="C83" s="7">
+      <c r="C83" s="6">
         <v>8883416575</v>
       </c>
       <c r="D83" t="s">
         <v>17</v>
       </c>
-      <c r="E83" s="9" t="s">
+      <c r="E83" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F83" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>5</v>
       </c>
-      <c r="C84" s="7">
+      <c r="C84" s="6">
         <v>8883416577</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>5</v>
       </c>
-      <c r="C85" s="7">
+      <c r="C85" s="6">
         <v>8883416578</v>
       </c>
       <c r="D85" t="s">
         <v>25</v>
       </c>
-      <c r="E85" s="9" t="s">
+      <c r="E85" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F85" t="s">
         <v>27</v>
       </c>
-      <c r="G85" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>5</v>
       </c>
-      <c r="C86" s="7">
+      <c r="C86" s="6">
         <v>8883416581</v>
       </c>
       <c r="D86" t="s">
         <v>10</v>
       </c>
-      <c r="E86" s="9" t="s">
+      <c r="E86" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F86" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>5</v>
       </c>
-      <c r="C87" s="7">
+      <c r="C87" s="6">
         <v>9547348506</v>
       </c>
       <c r="D87" t="s">
         <v>12</v>
       </c>
-      <c r="E87" s="9" t="s">
+      <c r="E87" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F87" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B88" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
